--- a/TS_1_Przypadki_testowe_tworzenie_przesylek_v3(1).xlsx
+++ b/TS_1_Przypadki_testowe_tworzenie_przesylek_v3(1).xlsx
@@ -24,30 +24,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="111">
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Inpost - tworzenie przesyłek </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve"> (testy funkcjonalne)</t>
-    </r>
+    <t xml:space="preserve">Inpost - tworzenie przesyłek  (testy funkcjonalne)</t>
   </si>
   <si>
-    <t xml:space="preserve">Test scenario: Scenariusze_testowe_Inpost_API_ShipX v2 – pkt 1</t>
+    <t xml:space="preserve">Test scenario: Scenariusze_testowe_Inpost_API_ShipX v2 – pkt 2</t>
   </si>
   <si>
     <t xml:space="preserve">based on documentation: https://dokumentacja-inpost.atlassian.net/wiki/spaces/PL/overview</t>
@@ -98,7 +80,7 @@
     <t xml:space="preserve">Wynik</t>
   </si>
   <si>
-    <t xml:space="preserve">Test case nr 1.1</t>
+    <t xml:space="preserve">Test case nr 2.1</t>
   </si>
   <si>
     <t xml:space="preserve">Krytyczny</t>
@@ -124,12 +106,10 @@
 Użytkownik musi posiadać nr umowy id trucker</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Metoda http - post
-2. wybierz endpoint -v1/organizations/(id_organizations)/shipments 
-3. Należy uzupełnić dane  wzoru zasobu;
-POST 
-https://sandbox-api-shipx-pl.easypack24.net
-{ 
+    <t xml:space="preserve">1.  Wybierz endpoint -v1/organizations/(id_organizations)/shipments, uzupełnij odpowiedni ID organizacji
+2. W zakładce authorization wybierz typ autoryzacji "bearer token" oraz uzupełnij pole "token" swoim nr token
+3. Należy uzupełnić dane wzakladce body wg  wzoru zasobu (format JSON)
+{
     "receiver": {
         "name": "Name",
         "company_name": "Company name",
@@ -138,7 +118,7 @@
         "email": "test@inpost.pl",
         "phone": "111222333"
     },
-    "parcels": 
+    "parcels":
         {
             "template": "small"
     },
@@ -157,10 +137,14 @@
     "service": "inpost_locker_standard",
     "reference": "Test",
     "external_customer_id": "8877xxx"
-}'</t>
+}'
+4. Naciśnij przycisk "SEND"</t>
   </si>
   <si>
-    <t xml:space="preserve">* kod odpowiedzi HTTP : 201 CREATED</t>
+    <t xml:space="preserve">1. Utworzono poprawny adrrs URL
+2. Token został poprawnie wpisany
+3.  Zakładka "body" została poprawnie uzupełniona
+4. Pojawia się kod opowiedzi "kod odpowiedzi HTTP : 201 CREATED</t>
   </si>
   <si>
     <t xml:space="preserve">Należy wpisać poprawną nazwę szablonu dla przesyłki o gabarycie A:
@@ -170,7 +154,7 @@
     <t xml:space="preserve">pozytywny</t>
   </si>
   <si>
-    <t xml:space="preserve">Test case nr 1.2</t>
+    <t xml:space="preserve">Test case nr 2.2</t>
   </si>
   <si>
     <t xml:space="preserve">Tworzenie paczki paczkomat 24/7 z błędnym nr telefonu</t>
@@ -187,9 +171,9 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1. wybierz metodę http post
-2. wybierz endpoint -v1/organizations/(id_organizations)/shipments
-3. Uzupełnij body wg schematu:
+      <t xml:space="preserve">1.  Wybierz endpoint -v1/organizations/(id_organizations)/shipments, uzupełnij odpowiedni ID organizacji
+2. W zakładce authorization wybierz typ autoryzacji "bearer token" oraz uzupełnij pole "token" swoim nr token
+3. Należy uzupełnić dane wzakladce body wg  wzoru zasobu (format JSON)
 { 
     "receiver": {
         "name": "Name",
@@ -240,18 +224,22 @@
     "reference": "Test",
     "external_customer_id": "8877xxx"
 }
-4. Uzupełnij parametr ""phone": błędnym formatem np 123-123-123</t>
+4. Uzupełnij parametr ""phone": błędnym formatem np 123-123-123
+5. Naciśnij przycisk "SEND"</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">1. Kod odpowiedzi 400 bad request
-2. W body odpowiedzi pojawi się informacja o błędzie validation_failed </t>
+    <t xml:space="preserve">1. Utworzono poprawny adrrs URL
+2. Token został poprawnie wpisany
+3. Zakładka "body" została poprawnie uzupełniona
+4. Format nr telefonu został zmieniony
+5. Kod odpowiedzi 400 bad request. W body odpowiedzi pojawi się informacja o błędzie validation_failed </t>
   </si>
   <si>
     <t xml:space="preserve">Warunkiem koniecznym jest wpisane błędnego formatu nr telefonu</t>
   </si>
   <si>
-    <t xml:space="preserve">Test case nr 1.3</t>
+    <t xml:space="preserve">Test case nr 2.3</t>
   </si>
   <si>
     <t xml:space="preserve">Tworzenie paczki paczkomat 24/7 dla niepoprawnego nr organizacji</t>
@@ -263,9 +251,9 @@
     <t xml:space="preserve">post</t>
   </si>
   <si>
-    <t xml:space="preserve">1. wybierz metodę http post
-2. wybierz endpoint -v1/organizations/(id_organizations)/shipments
-3. Uzupełnij body wg schematu:
+    <t xml:space="preserve">1.  Wybierz endpoint -v1/organizations/(id_organizations)/shipments, uzupełnij odpowiedni ID organizacji
+2. W zakładce authorization wybierz typ autoryzacji "bearer token" oraz uzupełnij pole "token" swoim nr token
+3. Należy uzupełnić dane wzakladce body wg  wzoru zasobu (format JSON)
 { 
     "receiver": {
         "name": "Name",
@@ -295,17 +283,21 @@
     "reference": "Test",
     "external_customer_id": "8877xxx"
 }
-4. Uzupełniając endpoint wpisz błędny id organizations - inny niż dostępny po autoryzacji</t>
+4. Uzupełniając endpoint wpisz błędny id organizations - inny niż dostępny po autoryzacji
+4. Naciśnij przycisk "SEND"</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Kod odpowiedzi 403 forbidden
-2. W body odpowiedzi pojawi się informacja o błędzie "forbidden"</t>
+    <t xml:space="preserve">1. Utworzono poprawny adrrs URL
+2. Token został poprawnie wpisany
+3. Zakładka "body" została poprawnie uzupełniona
+4. ID organizacji zostało uzupełnione błędnym nr
+5. Kod odpowiedzi 403 forbidden. W body odpowiedzi pojawi się informacja o błędzie "forbidden"</t>
   </si>
   <si>
     <t xml:space="preserve">Należy błędnie uzupełnić id organizations w zapytaniu</t>
   </si>
   <si>
-    <t xml:space="preserve">Test case nr 1.4</t>
+    <t xml:space="preserve">Test case nr 2.4</t>
   </si>
   <si>
     <t xml:space="preserve">Tworzenie przesyłki na usługę, na tóra organizacja nie posiada umowy</t>
@@ -314,10 +306,28 @@
     <t xml:space="preserve">Celem testu jest sprawdzenie czy możliwe jest wygenerowanie przesyłki na usługę, na którą organizacja nie posiada umowy</t>
   </si>
   <si>
-    <t xml:space="preserve">1. wybierz metodę http post 
-2. wybierz endpoint -v1/organizations/(id_organizations)/shipments 
-3. Utwórz zapytanie na usługę, na którą organizacja nie posiada umowy np przesyłka kurierska wpisując w body odpowiedni schemat z dokumentacji np:
-{
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">1.  Wybierz endpoint -v1/organizations/(id_organizations)/shipments, uzupełnij odpowiedni ID organizacji
+2. W zakładce authorization wybierz typ autoryzacji "bearer token" oraz uzupełnij pole "token" swoim nr token
+3. Wybierz z dokumentacji zapytanie na usługę,na którą organizacja nie posiada umowy np kurier (format JSON)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Arial&quot;"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">{
     "receiver": {
         "name": "Name",
         "company_name": "Company name",
@@ -363,17 +373,23 @@
     "comments": "dowolny komentarz",
     "external_customer_id": "8877xxx",
     "mpk": "Nazwa miejsca powstania kosztów"
-}</t>
+}
+ 5. Naciśnij przycisk "SEND"</t>
+    </r>
   </si>
   <si>
-    <t xml:space="preserve">1. kod odpowiedzi 400 - Bad request
-2. w body odpowiedzi pojawi się komunikat o błędzie "carrier_unavailable"</t>
+    <t xml:space="preserve">1. Utworzono poprawny adrrs URL
+2. Token został poprawnie wpisany
+3. Zakładka "body" została poprawnie uzupełniona
+4. Format nr telefonu został zmieniony
+5. Kod odpowiedzi 400 - Bad request
+W body odpowiedzi pojawi się komunikat o błędzie "carrier_unavailable"</t>
   </si>
   <si>
     <t xml:space="preserve">Należy koniecznie wysłać zapytanie na usługę inną niż paczkomat 24/7</t>
   </si>
   <si>
-    <t xml:space="preserve">Test case nr 1.5</t>
+    <t xml:space="preserve">Test case nr 2.5</t>
   </si>
   <si>
     <t xml:space="preserve">Tworzenie przesyłki paczkomat 24/7 bez nr paczkomatu</t>
@@ -390,9 +406,9 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1. wybierz metodę http post
-2. wybierz endpoint -v1/organizations/(id_organizations)/shipments
-3. Uzupełnij body wg schematu:
+      <t xml:space="preserve">1.  Wybierz endpoint -v1/organizations/(id_organizations)/shipments, uzupełnij odpowiedni ID organizacji
+2. W zakładce authorization wybierz typ autoryzacji "bearer token" oraz uzupełnij pole "token" swoim nr token
+3. Należy uzupełnić dane wzakladce body wg  wzoru zasobu (format JSON)
 { 
     "receiver": {
         "name": "Name",
@@ -454,14 +470,33 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">  "null"</t>
+      <t xml:space="preserve">  "null"
+</t>
     </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+5. Naciśnij przycisk "SEND"</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Utworzono poprawny adrrs URL
+2. Token został poprawnie wpisany
+3. Zakładka "body" została poprawnie uzupełniona
+4. Parametr target został uzupełniony wartością null
+5. Kod odpowiedzi 400 bad request. W body odpowiedzi pojawi się informacja o błędzie validation_failed </t>
   </si>
   <si>
     <t xml:space="preserve">nalezy w parametrze "target_point" wpisać "null"</t>
   </si>
   <si>
-    <t xml:space="preserve">test case nr 1.6</t>
+    <t xml:space="preserve">test case nr 2.6</t>
   </si>
   <si>
     <t xml:space="preserve">krytyczny</t>
@@ -473,17 +508,46 @@
     <t xml:space="preserve">Celem testu jest weryfikacja czy możliwe jest stworzenie prezsyłki z błędnym formatem adresu e-mail</t>
   </si>
   <si>
-    <t xml:space="preserve">1. wybierz metodę http post
-2. wybierz endpoint -v1/organizations/(id_organizations)/shipments
-3. Uzupełnij body wg schematu:
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">1.  Wybierz endpoint -v1/organizations/(id_organizations)/shipments, uzupełnij odpowiedni ID organizacji
+2. W zakładce authorization wybierz typ autoryzacji "bearer token" oraz uzupełnij pole "token" swoim nr token
+3. Należy uzupełnić dane wzakladce body wg  wzoru zasobu (format JSON)
 { 
     "receiver": {
         "name": "Name",
         "company_name": "Company name",
         "first_name": "Jan",
         "last_name": "Kowalski",
-        "email": "test.test.pl",
-        "phone": "111222333"
+     </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">   "email": "test.test.pl",
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">        "phone": "111222333"
     },
     "parcels": 
         {
@@ -499,19 +563,49 @@
     },
     "custom_attributes": {
             "sending_method": "dispatch_order",
-        "target_point": "KRA012"
+       </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">"target_point": "KRA012"
     },
     "service": "inpost_locker_standard",
     "reference": "Test",
     "external_customer_id": "8877xxx"
 }
-4. Uzupełnij parametr ""email": błędnym formatem np test.test.pl</t>
+4. Uzupełnij parametr ""email": błędnym formatem np test.test.pl
+5. Naciśnij przycisk "SEND"</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Utworzono poprawny adrrs URL
+2. Token został poprawnie wpisany
+3. Zakładka "body" została poprawnie uzupełniona
+4. Format email został zmieniony
+5. Kod odpowiedzi 400 bad request. W body odpowiedzi pojawi się informacja o błędzie validation_failed </t>
   </si>
   <si>
     <t xml:space="preserve">koniecznie należy wpisać błędny format adresu email</t>
   </si>
   <si>
-    <t xml:space="preserve">test case nr 1.7</t>
+    <t xml:space="preserve">test case nr 2.7</t>
   </si>
   <si>
     <t xml:space="preserve">Wysoki</t>
@@ -523,7 +617,15 @@
     <t xml:space="preserve">Celem testu jest próba stworzenia paczki z rozmiarem niedostępnym dla usługi paczkomat 24/7</t>
   </si>
   <si>
-    <t xml:space="preserve">1. wybierz metodę http post 
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Arial&quot;"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">1. wybierz metodę http post 
 2. wybierz endpoint -v1/organizations/(id_organizations)/shipments 
 3. Uzupełnij body wg schematu: 
 { 
@@ -555,13 +657,32 @@
     "reference": "Test",
     "external_customer_id": "8877xxx"
 }
-4. Uzupełnij parametr  "template" wartością "xlarge" - rozmiar niedostępny dla usługi paczkomat</t>
+4. Uzupełnij parametr  "template" wartością "xlarge" - rozmiar niedostępny dla usługi paczkomat
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">5. Naciśnij przycisk "SEND"</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Utworzono poprawny adrrs URL
+2. Token został poprawnie wpisany
+3. Zakładka "body" została poprawnie uzupełniona
+4. Zawartość parametru "template" została uzupełniona wartością “xlarge”
+5. Kod odpowiedzi 400 bad request. W body odpowiedzi pojawi się informacja o błędzie validation_failed </t>
   </si>
   <si>
     <t xml:space="preserve">Należy uzupełnić parametr  "template" wartością "xlarge"</t>
   </si>
   <si>
-    <t xml:space="preserve">test case nr 1.8</t>
+    <t xml:space="preserve">test case nr 2.8</t>
   </si>
   <si>
     <t xml:space="preserve">Tworzenie przesyłki paczkomat 27/7 bez nr telefonu</t>
@@ -570,9 +691,177 @@
     <t xml:space="preserve">Celem testu jest weryfikacja czy możliwe jest sworzenie przesyłki do paczkomatu bez podania numeru telefonu</t>
   </si>
   <si>
-    <t xml:space="preserve">1. wybierz metodę http post 
-2. wybierz endpoint -v1/organizations/(id_organizations)/shipments 
-3. Uzupełnij body wg schematu: 
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">1.  Wybierz endpoint -v1/organizations/(id_organizations)/shipments, uzupełnij odpowiedni ID organizacji
+2. W zakładce authorization wybierz typ autoryzacji "bearer token" oraz uzupełnij pole "token" swoim nr token
+3. Należy uzupełnić dane wzakladce body wg  wzoru zasobu (format JSON)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Arial&quot;"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">{ 
+    "receiver": {
+        "name": "Name",
+        "company_name": "Company name",
+        "first_name": "Jan",
+        "last_name": "Kowalski",
+        "email": "test@inpost.pl",
+        "phone": "111222333"
+    },
+    "parcels": 
+        {
+            "template": "small"
+    },
+    "insurance": {
+        "amount": 25,
+        "currency": "PLN"
+    },
+    "cod": {
+        "amount": 12.50,
+        "currency": "PLN"
+    },
+    "custom_attributes": {
+            "sending_method": "dispatch_order",
+        "target_point": "KRA012"
+    },
+    "service": "inpost_locker_standard",
+    "reference": "Test",
+    "external_customer_id": "8877xxx"
+}
+4. Uzupełnij parametr  "phone" wartością "null"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">5. Naciśnij przycisk "SEND"</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Utworzono poprawny adrrs URL
+2. Token został poprawnie wpisany
+3. Zakładka "body" została poprawnie uzupełniona
+4. Zawartość parametru "phone" została uzupełniona nieistniejącym warto scią “null”
+5. Kod odpowiedzi 400 bad request. W body odpowiedzi pojawi się informacja o błędzie validation_failed </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Należy koniecznie uzupełnić parametr "phone" wartością "null"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">test case nr 2.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tworzenie przesyłki paczkomat 24/7 bez adresu email</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Celem testu jest weryfikacja czy możliwe jest sworzenie przesyłki do paczkomatu bez podania adresu email</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">1.  Wybierz endpoint -v1/organizations/(id_organizations)/shipments, uzupełnij odpowiedni ID organizacji
+2. W zakładce authorization wybierz typ autoryzacji "bearer token" oraz uzupełnij pole "token" swoim nr token
+3. Należy uzupełnić dane wzakladce body wg  wzoru zasobu (format JSON)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Arial&quot;"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">{ 
+    "receiver": {
+        "name": "Name",
+        "company_name": "Company name",
+        "first_name": "Jan",
+        "last_name": "Kowalski",
+        "email": "test@inpost.pl",
+        "phone": "111222333"
+    },
+    "parcels": 
+        {
+            "template": "small"
+    },
+    "insurance": {
+        "amount": 25,
+        "currency": "PLN"
+    },
+    "cod": {
+        "amount": 12.50,
+        "currency": "PLN"
+    },
+    "custom_attributes": {
+            "sending_method": "dispatch_order",
+        "target_point": "KRA012"
+    },
+    "service": "inpost_locker_standard",
+    "reference": "Test",
+    "external_customer_id": "8877xxx"
+}
+4. Uzupełnij parametr  "email" wartością "null"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">5. Naciśnij przycisk "SEND"</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Utworzono poprawny adrrs URL
+2. Token został poprawnie wpisany
+3. Zakładka "body" została poprawnie uzupełniona
+4. Zawartość parametru "email" została uzupełniona nieistniejącym warto scią “null”
+5. Kod odpowiedzi 400 bad request. W body odpowiedzi pojawi się informacja o błędzie validation_failed </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Należy koniecznie uzupełnić parametr "email" wartością "null"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test case nr 2.10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tworzenie przesyłki paczkomat 24/7 z błędnym nr paczkomatu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Celem testu jest weryfikacja czy możliwe jest stworzenie przesyłki paczkomat podając błedny nr paczkomatu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.  Wybierz endpoint -v1/organizations/(id_organizations)/shipments, uzupełnij odpowiedni ID organizacji
+2. W zakładce authorization wybierz typ autoryzacji "bearer token" oraz uzupełnij pole "token" swoim nr token
+3. Należy uzupełnić dane w zakladce body wg  wzoru zasobu (format JSON)
 { 
     "receiver": {
         "name": "Name",
@@ -602,107 +891,21 @@
     "reference": "Test",
     "external_customer_id": "8877xxx"
 }
-4. Uzupełnij parametr  "phone" wartością "null"</t>
+4. Uzupełnij parametr "target-point" nr paczkomatu nieistniejącym w bazie. Poprawność nazwy paczomatu można zweryfikować pod adresem https://inpost.pl/znajdz-paczkomat
+5. Naciśnij przycisk "SEND"</t>
   </si>
   <si>
-    <t xml:space="preserve">Należy koniecznie uzupełnić parametr "phone" wartością "null"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">test case nr 1.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tworzenie przesyłki paczkomat 24/7 bez adresu email</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Celem testu jest weryfikacja czy możliwe jest sworzenie przesyłki do paczkomatu bez podania adresu email</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. wybierz metodę http post 
-2. wybierz endpoint -v1/organizations/(id_organizations)/shipments 
-3. Uzupełnij body wg schematu: 
-{ 
-    "receiver": {
-        "name": "Name",
-        "company_name": "Company name",
-        "first_name": "Jan",
-        "last_name": "Kowalski",
-        "email": "test@inpost.pl",
-        "phone": "111222333"
-    },
-    "parcels": 
-        {
-            "template": "small"
-    },
-    "insurance": {
-        "amount": 25,
-        "currency": "PLN"
-    },
-    "cod": {
-        "amount": 12.50,
-        "currency": "PLN"
-    },
-    "custom_attributes": {
-            "sending_method": "dispatch_order",
-        "target_point": "KRA012"
-    },
-    "service": "inpost_locker_standard",
-    "reference": "Test",
-    "external_customer_id": "8877xxx"
-}
-4. Uzupełnij parametr  "email" wartością "null"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Należy koniecznie uzupełnić parametr "email" wartością "null"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test case nr 1.10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tworzenie przesyłki paczkomat 24/7 z błędnym nr paczkomatu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Celem testu jest weryfikacja czy możliwe jest stworzenie przesyłki paczkomat podając błedny nr paczkomatu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. wybierz metodę http post 
-2. wybierz endpoint -v1/organizations/(id_organizations)/shipments 
-3. Uzupełnij body wg schematu: 
-{ 
-    "receiver": {
-        "name": "Name",
-        "company_name": "Company name",
-        "first_name": "Jan",
-        "last_name": "Kowalski",
-        "email": "test@inpost.pl",
-        "phone": "111222333"
-    },
-    "parcels": 
-        {
-            "template": "small"
-    },
-    "insurance": {
-        "amount": 25,
-        "currency": "PLN"
-    },
-    "cod": {
-        "amount": 12.50,
-        "currency": "PLN"
-    },
-    "custom_attributes": {
-            "sending_method": "dispatch_order",
-        "target_point": "KRA012"
-    },
-    "service": "inpost_locker_standard",
-    "reference": "Test",
-    "external_customer_id": "8877xxx"
-}
-4. Uzupełnij [arametr "target-point" nr paczkomatu nieistniejącym w bazie.Poprawnośćnazwy paczomatu można zweryfikować pod adresem https://inpost.pl/znajdz-paczkomat</t>
+    <t xml:space="preserve">1. Utworzono poprawny adrrs URL
+2. Token został poprawnie wpisany
+3. Zakładka "body" została poprawnie uzupełniona
+4. Zawartość parametru "target-point" została uzupełniona nieistniejącym nr paczkomatu
+5. Kod odpowiedzi 400 bad request. W body odpowiedzi pojawi się informacja o błędzie validation_failed </t>
   </si>
   <si>
     <t xml:space="preserve">Należy koniecznie wpisać nieistniejący nr paczkomatu</t>
   </si>
   <si>
-    <t xml:space="preserve">Test case nr 1.11</t>
+    <t xml:space="preserve">Test case nr 2.11</t>
   </si>
   <si>
     <t xml:space="preserve">Tworzenie przesyłki paczkomat 24/7 z kwotą COD równą 0</t>
@@ -719,9 +922,9 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1. wybierz metodę http post
-2. wybierz endpoint -v1/organizations/(id_organizations)/shipments
-3. Uzupełnij body wg schematu:
+      <t xml:space="preserve">1.  Wybierz endpoint -v1/organizations/(id_organizations)/shipments, uzupełnij odpowiedni ID organizacji
+2. W zakładce authorization wybierz typ autoryzacji "bearer token" oraz uzupełnij pole "token" swoim nr token
+3. Należy uzupełnić dane w zakladce body wg  wzoru zasobu (format JSON)
 { 
     "receiver": {
         "name": "Name",
@@ -772,14 +975,22 @@
     "reference": "Test",
     "external_customer_id": "8877xxx"
 }
-4. W parametrze COD w wartość "amount" wpisz 0</t>
+4. W parametrze COD w wartość "amount" wpisz 0
+5. Naciśnij przycisk "SEND"</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Utworzono poprawny adrrs URL
+2. Token został poprawnie wpisany
+3. Zakładka "body" została poprawnie uzupełniona
+4. Zawartość parametru “ammout została zmieniona na 0
+5. Kod odpowiedzi 400 bad request. W body odpowiedzi pojawi się informacja o błędzie validation_failed </t>
   </si>
   <si>
     <t xml:space="preserve">Należy koniecznie uzupełnić parametr "acount" wartością zero</t>
   </si>
   <si>
-    <t xml:space="preserve">Test case nr 1.12</t>
+    <t xml:space="preserve">Test case nr 2.12</t>
   </si>
   <si>
     <t xml:space="preserve">Tworzenie przesyłki paczkomat 24/7 z kwotą COD powyżej maksymalnej watrości</t>
@@ -788,9 +999,9 @@
     <t xml:space="preserve">Celem testu jest weryfikacja czy możliwe jest stworzenie przesyłki paczkomat 24/7 z kwotą pobrania przewyższającą maksymalną możliwą wartość</t>
   </si>
   <si>
-    <t xml:space="preserve">1. wybierz metodę http post
-2. wybierz endpoint -v1/organizations/(id_organizations)/shipments
-3. Uzupełnij body wg schematu:
+    <t xml:space="preserve">1.  Wybierz endpoint -v1/organizations/(id_organizations)/shipments, uzupełnij odpowiedni ID organizacji
+2. W zakładce authorization wybierz typ autoryzacji "bearer token" oraz uzupełnij pole "token" swoim nr token
+3. Należy uzupełnić dane w zakladce body wg  wzoru zasobu (format JSON)
 { 
     "receiver": {
         "name": "Name",
@@ -820,13 +1031,21 @@
     "reference": "Test",
     "external_customer_id": "8877xxx"
 }
-4. W parametrze COD w wartość "amount" wpisz kwotę powyżej maksymalnej watości pobrania. Informację o kwotach COD znajdziesz pod adresem https://inpost.pl/cenniki</t>
+4. W parametrze COD w wartość "amount" wpisz kwotę powyżej maksymalnej watości pobrania. Informację o kwotach COD znajdziesz pod adresem https://inpost.pl/cenniki
+5. Naciśnij przycisk "SEND"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Utworzono poprawny adrrs URL
+2. Token został poprawnie wpisany
+3. Zakładka "body" została poprawnie uzupełniona
+4. COD zostało uzupełnione wartościa 5001
+5. Kod odpowiedzi 400 bad request. W body odpowiedzi pojawi się informacja o błędzie validation_failed </t>
   </si>
   <si>
     <t xml:space="preserve">Należy parametr acount uzupełnić kwotą powyżej maksymalnej możliwej wartości</t>
   </si>
   <si>
-    <t xml:space="preserve">Test case nr 1.13</t>
+    <t xml:space="preserve">Test case nr 2.13</t>
   </si>
   <si>
     <t xml:space="preserve">Tworzenie przesyłki paczkomat inpost 24/7 bez COD</t>
@@ -843,9 +1062,9 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1. wybierz metodę http post
-2. wybierz endpoint -v1/organizations/(id_organizations)/shipments
-3. Uzupełnij body wg schematu:
+      <t xml:space="preserve">1.  Wybierz endpoint -v1/organizations/(id_organizations)/shipments, uzupełnij odpowiedni ID organizacji
+2. W zakładce authorization wybierz typ autoryzacji "bearer token" oraz uzupełnij pole "token" swoim nr token
+3. Należy uzupełnić dane w zakladce body wg  wzoru zasobu (format JSON)
 { 
     "receiver": {
         "name": "Name",
@@ -896,14 +1115,22 @@
     "reference": "Test",
     "external_customer_id": "8877xxx"
 }
-4. Usuń z treści żądania parametr COD oraz cały jego zasób</t>
+4. Usuń z treści żądania parametr COD oraz cały jego zasób
+5. Naciśnij przycisk "SEND"</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Utworzono poprawny adrrs URL
+2. Token został poprawnie wpisany
+3.  Zakładka "body" została poprawnie uzupełniona
+4. Parametr Cod został usunięty
+5. Pojawia się kod opowiedzi "kod odpowiedzi HTTP : 201 CREATED</t>
   </si>
   <si>
     <t xml:space="preserve">Należy koniecznie usunąć parametr COD</t>
   </si>
   <si>
-    <t xml:space="preserve">Test Case nr 1.14</t>
+    <t xml:space="preserve">Test Case nr 2.14</t>
   </si>
   <si>
     <t xml:space="preserve">Tworzenie przesyłki paczkomat inpost 24/7 z błędną nazwą rozmiaru paczki</t>
@@ -920,9 +1147,9 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1. wybierz metodę http post
-2. wybierz endpoint -v1/organizations/(id_organizations)/shipments
-3. Uzupełnij body wg schematu:
+      <t xml:space="preserve">1.  Wybierz endpoint -v1/organizations/(id_organizations)/shipments, uzupełnij odpowiedni ID organizacji
+2. W zakładce authorization wybierz typ autoryzacji "bearer token" oraz uzupełnij pole "token" swoim nr token
+3. Należy uzupełnić dane w zakladce body wg  wzoru zasobu (format JSON)
 { 
     "receiver": {
         "name": "Name",
@@ -973,8 +1200,16 @@
     "reference": "Test",
     "external_customer_id": "8877xxx"
 }
-4. Uzupełnij parametr "template" błędną wartością (nie będąca rozmiarem paczki opisanm w dokumentacji) np "A"</t>
+4. Uzupełnij parametr "template" błędną wartością (nie będąca rozmiarem paczki opisanm w dokumentacji) np "A"
+5. Naciśnij przycisk "SEND"</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Utworzono poprawny adrrs URL
+2. Token został poprawnie wpisany
+3. Zakładka "body" została poprawnie uzupełniona
+4. Zawartość parametru “template” została zmieniona na A
+5. Kod odpowiedzi 400 bad request. W body odpowiedzi pojawi się informacja o błędzie validation_failed </t>
   </si>
   <si>
     <t xml:space="preserve">Należy uzupełnić parametr "template" błędną wartością</t>
@@ -1018,12 +1253,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
       <b val="true"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1047,17 +1276,23 @@
       <charset val="1"/>
     </font>
     <font>
-      <u val="single"/>
-      <sz val="11"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
-      <family val="0"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
+      <family val="0"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1116,7 +1351,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1145,7 +1380,7 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1157,19 +1392,27 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1294,9 +1537,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>117360</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>28080</xdr:rowOff>
+      <xdr:colOff>116640</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>3027960</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1305,8 +1548,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6195240" y="3551400"/>
-          <a:ext cx="2857320" cy="2857320"/>
+          <a:off x="6206760" y="59278320"/>
+          <a:ext cx="2857680" cy="2856600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1355,7 +1598,6 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table_1" displayName="Table_1" ref="A1:K13" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
-  <autoFilter ref="A1:K13"/>
   <tableColumns count="11">
     <tableColumn id="1" name="Inpost - tworzenie przesyłek  (testy funkcjonalne)"/>
     <tableColumn id="2" name=""/>
@@ -1380,14 +1622,14 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
+      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.640625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6796875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="30.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="33.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="31.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="30.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="33.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="76.97"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="37.88"/>
   </cols>
   <sheetData>
@@ -1567,7 +1809,7 @@
       <c r="Y8" s="8"/>
       <c r="Z8" s="8"/>
     </row>
-    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="479.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="9" t="s">
         <v>18</v>
       </c>
@@ -1605,7 +1847,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="508.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="9" t="s">
         <v>30</v>
       </c>
@@ -1643,7 +1885,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="521.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="9" t="s">
         <v>36</v>
       </c>
@@ -1681,7 +1923,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="724.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="9" t="s">
         <v>43</v>
       </c>
@@ -1706,7 +1948,7 @@
       <c r="H12" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="I12" s="11" t="s">
+      <c r="I12" s="6" t="s">
         <v>46</v>
       </c>
       <c r="J12" s="6" t="s">
@@ -1719,7 +1961,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="297" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="9" t="s">
         <v>49</v>
       </c>
@@ -1744,31 +1986,31 @@
       <c r="H13" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="I13" s="6" t="s">
+      <c r="I13" s="11" t="s">
         <v>52</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L13" s="9" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="508.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>39</v>
@@ -1782,31 +2024,31 @@
       <c r="H14" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="I14" s="12" t="s">
-        <v>58</v>
+      <c r="I14" s="6" t="s">
+        <v>59</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L14" s="9" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="470.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="9" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>39</v>
@@ -1820,31 +2062,31 @@
       <c r="H15" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="I15" s="11" t="s">
-        <v>64</v>
+      <c r="I15" s="12" t="s">
+        <v>66</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="L15" s="9" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="508.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="9" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>39</v>
@@ -1859,30 +2101,30 @@
         <v>25</v>
       </c>
       <c r="I16" s="11" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>34</v>
+        <v>73</v>
       </c>
       <c r="K16" s="6" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="L16" s="9" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="508.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="9" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>39</v>
@@ -1897,30 +2139,30 @@
         <v>25</v>
       </c>
       <c r="I17" s="11" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="J17" s="6" t="s">
-        <v>34</v>
+        <v>79</v>
       </c>
       <c r="K17" s="6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="L17" s="9" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="534.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="9" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>39</v>
@@ -1935,30 +2177,30 @@
         <v>25</v>
       </c>
       <c r="I18" s="11" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>34</v>
+        <v>85</v>
       </c>
       <c r="K18" s="6" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="L18" s="9" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="508.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="9" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>39</v>
@@ -1973,30 +2215,30 @@
         <v>25</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="J19" s="6" t="s">
-        <v>34</v>
+        <v>91</v>
       </c>
       <c r="K19" s="6" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="L19" s="9" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="534.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="9" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>39</v>
@@ -2010,31 +2252,31 @@
       <c r="H20" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="I20" s="12" t="s">
-        <v>89</v>
+      <c r="I20" s="6" t="s">
+        <v>96</v>
       </c>
       <c r="J20" s="6" t="s">
-        <v>34</v>
+        <v>97</v>
       </c>
       <c r="K20" s="6" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="L20" s="9" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="508.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="9" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>39</v>
@@ -2049,30 +2291,30 @@
         <v>25</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="J21" s="6" t="s">
-        <v>27</v>
+        <v>103</v>
       </c>
       <c r="K21" s="6" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="L21" s="9" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="521.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="9" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>39</v>
@@ -2087,19 +2329,19 @@
         <v>25</v>
       </c>
       <c r="I22" s="6" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="J22" s="6" t="s">
-        <v>34</v>
+        <v>109</v>
       </c>
       <c r="K22" s="13" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="L22" s="9" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="2"/>
@@ -2108,12 +2350,12 @@
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
+      <c r="I23" s="14"/>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
       <c r="L23" s="1"/>
     </row>
-    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="2"/>
@@ -2122,12 +2364,12 @@
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
+      <c r="I24" s="14"/>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
       <c r="L24" s="1"/>
     </row>
-    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="2"/>
@@ -2136,12 +2378,12 @@
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
+      <c r="I25" s="14"/>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
       <c r="L25" s="1"/>
     </row>
-    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="2"/>
@@ -2150,12 +2392,12 @@
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
+      <c r="I26" s="14"/>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
       <c r="L26" s="1"/>
     </row>
-    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="2"/>
@@ -2164,12 +2406,12 @@
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
+      <c r="I27" s="14"/>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
       <c r="L27" s="1"/>
     </row>
-    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="2"/>
@@ -2178,12 +2420,12 @@
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
+      <c r="I28" s="15"/>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
       <c r="L28" s="1"/>
     </row>
-    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="2"/>
@@ -2192,12 +2434,12 @@
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
+      <c r="I29" s="14"/>
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
       <c r="L29" s="1"/>
     </row>
-    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="2"/>
@@ -2206,12 +2448,12 @@
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
+      <c r="I30" s="14"/>
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
       <c r="L30" s="1"/>
     </row>
-    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="2"/>
@@ -2220,12 +2462,12 @@
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
+      <c r="I31" s="15"/>
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
       <c r="L31" s="1"/>
     </row>
-    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="2"/>
@@ -2234,12 +2476,12 @@
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
+      <c r="I32" s="14"/>
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
       <c r="L32" s="1"/>
     </row>
-    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="2"/>
@@ -2248,12 +2490,12 @@
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
+      <c r="I33" s="14"/>
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
       <c r="L33" s="1"/>
     </row>
-    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="2"/>
@@ -2262,12 +2504,12 @@
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
+      <c r="I34" s="14"/>
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
       <c r="L34" s="1"/>
     </row>
-    <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="2"/>
@@ -2276,12 +2518,12 @@
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
-      <c r="I35" s="2"/>
+      <c r="I35" s="14"/>
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
       <c r="L35" s="1"/>
     </row>
-    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="2"/>
@@ -2290,12 +2532,12 @@
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
+      <c r="I36" s="14"/>
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
       <c r="L36" s="1"/>
     </row>
-    <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="2"/>
@@ -2304,12 +2546,12 @@
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
-      <c r="I37" s="2"/>
+      <c r="I37" s="14"/>
       <c r="J37" s="2"/>
       <c r="K37" s="2"/>
       <c r="L37" s="1"/>
     </row>
-    <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="2"/>
@@ -2318,12 +2560,12 @@
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
-      <c r="I38" s="2"/>
+      <c r="I38" s="14"/>
       <c r="J38" s="2"/>
       <c r="K38" s="2"/>
       <c r="L38" s="1"/>
     </row>
-    <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="2"/>
@@ -2332,22 +2574,22 @@
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
-      <c r="I39" s="2"/>
+      <c r="I39" s="14"/>
       <c r="J39" s="2"/>
       <c r="K39" s="2"/>
       <c r="L39" s="1"/>
     </row>
-    <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1"/>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
-      <c r="I40" s="2"/>
+      <c r="I40" s="14"/>
       <c r="J40" s="2"/>
       <c r="K40" s="2"/>
       <c r="L40" s="1"/>
     </row>
-    <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="2"/>
@@ -2356,12 +2598,12 @@
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
-      <c r="I41" s="2"/>
+      <c r="I41" s="14"/>
       <c r="J41" s="2"/>
       <c r="K41" s="2"/>
       <c r="L41" s="1"/>
     </row>
-    <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="2"/>
@@ -2370,12 +2612,12 @@
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
-      <c r="I42" s="2"/>
+      <c r="I42" s="14"/>
       <c r="J42" s="2"/>
       <c r="K42" s="2"/>
       <c r="L42" s="1"/>
     </row>
-    <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="2"/>
@@ -2384,12 +2626,12 @@
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
-      <c r="I43" s="2"/>
+      <c r="I43" s="14"/>
       <c r="J43" s="2"/>
       <c r="K43" s="2"/>
       <c r="L43" s="1"/>
     </row>
-    <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="2"/>
@@ -2398,12 +2640,12 @@
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
-      <c r="I44" s="2"/>
+      <c r="I44" s="14"/>
       <c r="J44" s="2"/>
       <c r="K44" s="2"/>
       <c r="L44" s="1"/>
     </row>
-    <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="2"/>
@@ -2412,12 +2654,12 @@
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
       <c r="H45" s="2"/>
-      <c r="I45" s="2"/>
+      <c r="I45" s="14"/>
       <c r="J45" s="2"/>
       <c r="K45" s="2"/>
       <c r="L45" s="1"/>
     </row>
-    <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="2"/>
@@ -2426,12 +2668,12 @@
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
       <c r="H46" s="2"/>
-      <c r="I46" s="2"/>
+      <c r="I46" s="14"/>
       <c r="J46" s="2"/>
       <c r="K46" s="2"/>
       <c r="L46" s="1"/>
     </row>
-    <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="2"/>
@@ -2440,12 +2682,12 @@
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
       <c r="H47" s="2"/>
-      <c r="I47" s="2"/>
+      <c r="I47" s="14"/>
       <c r="J47" s="2"/>
       <c r="K47" s="2"/>
       <c r="L47" s="1"/>
     </row>
-    <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="2"/>
@@ -2459,7 +2701,7 @@
       <c r="K48" s="2"/>
       <c r="L48" s="1"/>
     </row>
-    <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="2"/>
@@ -2473,7 +2715,7 @@
       <c r="K49" s="2"/>
       <c r="L49" s="1"/>
     </row>
-    <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="2"/>
@@ -2487,7 +2729,7 @@
       <c r="K50" s="2"/>
       <c r="L50" s="1"/>
     </row>
-    <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="2"/>
@@ -2501,7 +2743,7 @@
       <c r="K51" s="2"/>
       <c r="L51" s="1"/>
     </row>
-    <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="2"/>
@@ -2515,7 +2757,7 @@
       <c r="K52" s="2"/>
       <c r="L52" s="1"/>
     </row>
-    <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="2"/>
@@ -2529,7 +2771,7 @@
       <c r="K53" s="2"/>
       <c r="L53" s="1"/>
     </row>
-    <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="2"/>
@@ -2543,7 +2785,7 @@
       <c r="K54" s="2"/>
       <c r="L54" s="1"/>
     </row>
-    <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="2"/>
@@ -2557,7 +2799,7 @@
       <c r="K55" s="2"/>
       <c r="L55" s="1"/>
     </row>
-    <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="2"/>
@@ -2571,7 +2813,7 @@
       <c r="K56" s="2"/>
       <c r="L56" s="1"/>
     </row>
-    <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="2"/>
@@ -2585,7 +2827,7 @@
       <c r="K57" s="2"/>
       <c r="L57" s="1"/>
     </row>
-    <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="2"/>
@@ -2599,7 +2841,7 @@
       <c r="K58" s="2"/>
       <c r="L58" s="1"/>
     </row>
-    <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="2"/>
@@ -2613,7 +2855,7 @@
       <c r="K59" s="2"/>
       <c r="L59" s="1"/>
     </row>
-    <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="2"/>
@@ -2627,7 +2869,7 @@
       <c r="K60" s="2"/>
       <c r="L60" s="1"/>
     </row>
-    <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="2"/>
@@ -2641,7 +2883,7 @@
       <c r="K61" s="2"/>
       <c r="L61" s="1"/>
     </row>
-    <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="2"/>
@@ -2655,7 +2897,7 @@
       <c r="K62" s="2"/>
       <c r="L62" s="1"/>
     </row>
-    <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="2"/>
@@ -2669,7 +2911,7 @@
       <c r="K63" s="2"/>
       <c r="L63" s="1"/>
     </row>
-    <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="2"/>
@@ -2683,7 +2925,7 @@
       <c r="K64" s="2"/>
       <c r="L64" s="1"/>
     </row>
-    <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="2"/>
@@ -2697,7 +2939,7 @@
       <c r="K65" s="2"/>
       <c r="L65" s="1"/>
     </row>
-    <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="2"/>
@@ -2711,7 +2953,7 @@
       <c r="K66" s="2"/>
       <c r="L66" s="1"/>
     </row>
-    <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="2"/>
@@ -2725,7 +2967,7 @@
       <c r="K67" s="2"/>
       <c r="L67" s="1"/>
     </row>
-    <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="2"/>
@@ -15800,17 +16042,14 @@
     <hyperlink ref="F12" r:id="rId4" display="https://sandbox-api-shipx-pl.easypack24.net"/>
     <hyperlink ref="F13" r:id="rId5" display="https://sandbox-api-shipx-pl.easypack24.net"/>
     <hyperlink ref="F14" r:id="rId6" display="https://sandbox-api-shipx-pl.easypack24.net"/>
-    <hyperlink ref="I14" r:id="rId7" display="1. wybierz metodę http post&#10;2. wybierz endpoint -v1/organizations/(id_organizations)/shipments&#10;3. Uzupełnij body wg schematu:&#10;{ &#10;    &quot;receiver&quot;: {&#10;        &quot;name&quot;: &quot;Name&quot;,&#10;        &quot;company_name&quot;: &quot;Company name&quot;,&#10;        &quot;first_name&quot;: &quot;Jan&quot;,&#10;        &quot;last_name&quot;: &quot;Kowalski&quot;,&#10;        &quot;email&quot;: &quot;test.test.pl&quot;,&#10;        &quot;phone&quot;: &quot;111222333&quot;&#10;    },&#10;    &quot;parcels&quot;: &#10;        {&#10;            &quot;template&quot;: &quot;small&quot;&#10;    },&#10;    &quot;insurance&quot;: {&#10;        &quot;amount&quot;: 25,&#10;        &quot;currency&quot;: &quot;PLN&quot;&#10;    },&#10;    &quot;cod&quot;: {&#10;        &quot;amount&quot;: 12.50,&#10;        &quot;currency&quot;: &quot;PLN&quot;&#10;    },&#10;    &quot;custom_attributes&quot;: {&#10;            &quot;sending_method&quot;: &quot;dispatch_order&quot;,&#10;        &quot;target_point&quot;: &quot;KRA012&quot;&#10;    },&#10;    &quot;service&quot;: &quot;inpost_locker_standard&quot;,&#10;    &quot;reference&quot;: &quot;Test&quot;,&#10;    &quot;external_customer_id&quot;: &quot;8877xxx&quot;&#10;}&#10;&#10;4. Uzupełnij parametr &quot;&quot;email&quot;: błędnym formatem np test.test.pl"/>
-    <hyperlink ref="F15" r:id="rId8" display="https://sandbox-api-shipx-pl.easypack24.net"/>
-    <hyperlink ref="F16" r:id="rId9" display="https://sandbox-api-shipx-pl.easypack24.net"/>
-    <hyperlink ref="F17" r:id="rId10" display="https://sandbox-api-shipx-pl.easypack24.net"/>
-    <hyperlink ref="F18" r:id="rId11" display="https://sandbox-api-shipx-pl.easypack24.net"/>
-    <hyperlink ref="I18" r:id="rId12" display="1. wybierz metodę http post &#10;2. wybierz endpoint -v1/organizations/(id_organizations)/shipments &#10;3. Uzupełnij body wg schematu: &#10;{ &#10;    &quot;receiver&quot;: {&#10;        &quot;name&quot;: &quot;Name&quot;,&#10;        &quot;company_name&quot;: &quot;Company name&quot;,&#10;        &quot;first_name&quot;: &quot;Jan&quot;,&#10;        &quot;last_name&quot;: &quot;Kowalski&quot;,&#10;        &quot;email&quot;: &quot;test@inpost.pl&quot;,&#10;        &quot;phone&quot;: &quot;111222333&quot;&#10;    },&#10;    &quot;parcels&quot;: &#10;        {&#10;            &quot;template&quot;: &quot;small&quot;&#10;    },&#10;    &quot;insurance&quot;: {&#10;        &quot;amount&quot;: 25,&#10;        &quot;currency&quot;: &quot;PLN&quot;&#10;    },&#10;    &quot;cod&quot;: {&#10;        &quot;amount&quot;: 12.50,&#10;        &quot;currency&quot;: &quot;PLN&quot;&#10;    },&#10;    &quot;custom_attributes&quot;: {&#10;            &quot;sending_method&quot;: &quot;dispatch_order&quot;,&#10;        &quot;target_point&quot;: &quot;KRA012&quot;&#10;    },&#10;    &quot;service&quot;: &quot;inpost_locker_standard&quot;,&#10;    &quot;reference&quot;: &quot;Test&quot;,&#10;    &quot;external_customer_id&quot;: &quot;8877xxx&quot;&#10;}&#10;&#10;4. Uzupełnij [arametr &quot;target-point&quot; nr paczkomatu nieistniejącym w bazie.Poprawnośćnazwy paczomatu można zweryfikować pod adresem https://inpost.pl/znajdz-paczkomat"/>
-    <hyperlink ref="F19" r:id="rId13" display="https://sandbox-api-shipx-pl.easypack24.net"/>
-    <hyperlink ref="F20" r:id="rId14" display="https://sandbox-api-shipx-pl.easypack24.net"/>
-    <hyperlink ref="I20" r:id="rId15" display="1. wybierz metodę http post&#10;2. wybierz endpoint -v1/organizations/(id_organizations)/shipments&#10;3. Uzupełnij body wg schematu:&#10;{ &#10;    &quot;receiver&quot;: {&#10;        &quot;name&quot;: &quot;Name&quot;,&#10;        &quot;company_name&quot;: &quot;Company name&quot;,&#10;        &quot;first_name&quot;: &quot;Jan&quot;,&#10;        &quot;last_name&quot;: &quot;Kowalski&quot;,&#10;        &quot;email&quot;: &quot;test.test.pl&quot;,&#10;        &quot;phone&quot;: &quot;111222333&quot;&#10;    },&#10;    &quot;parcels&quot;: &#10;        {&#10;            &quot;template&quot;: &quot;small&quot;&#10;    },&#10;    &quot;insurance&quot;: {&#10;        &quot;amount&quot;: 25,&#10;        &quot;currency&quot;: &quot;PLN&quot;&#10;    },&#10;    &quot;cod&quot;: {&#10;        &quot;amount&quot;: 12.50,&#10;        &quot;currency&quot;: &quot;PLN&quot;&#10;    },&#10;    &quot;custom_attributes&quot;: {&#10;            &quot;sending_method&quot;: &quot;dispatch_order&quot;,&#10;        &quot;target_point&quot;: &quot;KRA012&quot;&#10;    },&#10;    &quot;service&quot;: &quot;inpost_locker_standard&quot;,&#10;    &quot;reference&quot;: &quot;Test&quot;,&#10;    &quot;external_customer_id&quot;: &quot;8877xxx&quot;&#10;}&#10;&#10;4. W parametrze COD w wartość &quot;amount&quot; wpisz kwotę powyżej maksymalnej watości pobrania. Informację o kwotach COD znajdziesz pod adresem https://inpost.pl/cenniki"/>
-    <hyperlink ref="F21" r:id="rId16" display="https://sandbox-api-shipx-pl.easypack24.net"/>
-    <hyperlink ref="F22" r:id="rId17" display="https://sandbox-api-shipx-pl.easypack24.net"/>
+    <hyperlink ref="F15" r:id="rId7" display="https://sandbox-api-shipx-pl.easypack24.net"/>
+    <hyperlink ref="F16" r:id="rId8" display="https://sandbox-api-shipx-pl.easypack24.net"/>
+    <hyperlink ref="F17" r:id="rId9" display="https://sandbox-api-shipx-pl.easypack24.net"/>
+    <hyperlink ref="F18" r:id="rId10" display="https://sandbox-api-shipx-pl.easypack24.net"/>
+    <hyperlink ref="F19" r:id="rId11" display="https://sandbox-api-shipx-pl.easypack24.net"/>
+    <hyperlink ref="F20" r:id="rId12" display="https://sandbox-api-shipx-pl.easypack24.net"/>
+    <hyperlink ref="F21" r:id="rId13" display="https://sandbox-api-shipx-pl.easypack24.net"/>
+    <hyperlink ref="F22" r:id="rId14" display="https://sandbox-api-shipx-pl.easypack24.net"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="true" gridLinesSet="true" horizontalCentered="true" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -15819,9 +16058,9 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
-  <drawing r:id="rId18"/>
+  <drawing r:id="rId15"/>
   <tableParts>
-    <tablePart r:id="rId19"/>
+    <tablePart r:id="rId16"/>
   </tableParts>
 </worksheet>
 </file>